--- a/Code/Results/Cases/Case_1_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_68/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.929142561831594</v>
+        <v>10.19202271113354</v>
       </c>
       <c r="E2">
-        <v>10.76736216989133</v>
+        <v>13.99772134997901</v>
       </c>
       <c r="F2">
-        <v>27.2425783715681</v>
+        <v>28.00002925415833</v>
       </c>
       <c r="G2">
-        <v>35.07036351202718</v>
+        <v>27.99262492241991</v>
       </c>
       <c r="H2">
-        <v>9.880956221490738</v>
+        <v>13.21923212800039</v>
       </c>
       <c r="J2">
-        <v>6.350288244501965</v>
+        <v>9.644818864116694</v>
       </c>
       <c r="O2">
-        <v>18.65048739628847</v>
+        <v>20.18627902080746</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -447,25 +447,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.7475376476474</v>
+        <v>10.18792776010369</v>
       </c>
       <c r="E3">
-        <v>10.35077646196039</v>
+        <v>13.96069026936262</v>
       </c>
       <c r="F3">
-        <v>25.76044373170517</v>
+        <v>27.72584099711404</v>
       </c>
       <c r="G3">
-        <v>32.81140880590392</v>
+        <v>27.34581590149835</v>
       </c>
       <c r="H3">
-        <v>9.52344913541118</v>
+        <v>13.19068893700766</v>
       </c>
       <c r="J3">
-        <v>6.203910081299304</v>
+        <v>9.64650525613669</v>
       </c>
       <c r="O3">
-        <v>17.68785064219426</v>
+        <v>20.02620259791254</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -473,25 +473,25 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6.637638983566914</v>
+        <v>10.18718855004999</v>
       </c>
       <c r="E4">
-        <v>10.09393799944284</v>
+        <v>13.94095794876884</v>
       </c>
       <c r="F4">
-        <v>24.82588725908337</v>
+        <v>27.56376897813321</v>
       </c>
       <c r="G4">
-        <v>31.36756249288892</v>
+        <v>26.94969477667469</v>
       </c>
       <c r="H4">
-        <v>9.303899349807509</v>
+        <v>13.17586455310845</v>
       </c>
       <c r="J4">
-        <v>6.116305738786405</v>
+        <v>9.649197674905501</v>
       </c>
       <c r="O4">
-        <v>17.08327969109419</v>
+        <v>19.93251056327977</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -499,25 +499,25 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>6.593308729239212</v>
+        <v>10.18733472167911</v>
       </c>
       <c r="E5">
-        <v>9.989154270753357</v>
+        <v>13.93367796296429</v>
       </c>
       <c r="F5">
-        <v>24.43931282760784</v>
+        <v>27.49937375959709</v>
       </c>
       <c r="G5">
-        <v>30.76519909385389</v>
+        <v>26.78879404821963</v>
       </c>
       <c r="H5">
-        <v>9.214538810583171</v>
+        <v>13.17050689977642</v>
       </c>
       <c r="J5">
-        <v>6.081206206877789</v>
+        <v>9.650711919510524</v>
       </c>
       <c r="O5">
-        <v>16.83381537688479</v>
+        <v>19.89552268896704</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -525,25 +525,25 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>6.585976650054624</v>
+        <v>10.18738604175381</v>
       </c>
       <c r="E6">
-        <v>9.971752273544817</v>
+        <v>13.93251524037363</v>
       </c>
       <c r="F6">
-        <v>24.3747903808411</v>
+        <v>27.488782674454</v>
       </c>
       <c r="G6">
-        <v>30.66434366534662</v>
+        <v>26.76211597885139</v>
       </c>
       <c r="H6">
-        <v>9.199710702393437</v>
+        <v>13.16965865087502</v>
       </c>
       <c r="J6">
-        <v>6.075415018752634</v>
+        <v>9.650988556930281</v>
       </c>
       <c r="O6">
-        <v>16.79221483937537</v>
+        <v>19.8894539280562</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -551,25 +551,25 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>6.637039223601645</v>
+        <v>10.18718870862639</v>
       </c>
       <c r="E7">
-        <v>10.09252513338266</v>
+        <v>13.94085668000986</v>
       </c>
       <c r="F7">
-        <v>24.82069636809535</v>
+        <v>27.56289374781946</v>
       </c>
       <c r="G7">
-        <v>31.35949494394981</v>
+        <v>26.94752234594239</v>
       </c>
       <c r="H7">
-        <v>9.302693603102794</v>
+        <v>13.17578952584707</v>
       </c>
       <c r="J7">
-        <v>6.115829907560279</v>
+        <v>9.649216407453324</v>
       </c>
       <c r="O7">
-        <v>17.07992742946534</v>
+        <v>19.93200685707587</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -577,25 +577,25 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>6.866221189033888</v>
+        <v>10.19024303432426</v>
       </c>
       <c r="E8">
-        <v>10.62402434875109</v>
+        <v>13.98433288131061</v>
       </c>
       <c r="F8">
-        <v>26.73685880228102</v>
+        <v>27.90422929772433</v>
       </c>
       <c r="G8">
-        <v>34.30342519974123</v>
+        <v>27.76954980634316</v>
       </c>
       <c r="H8">
-        <v>9.757763095630722</v>
+        <v>13.20883245916028</v>
       </c>
       <c r="J8">
-        <v>6.299362509181313</v>
+        <v>9.645056714851281</v>
       </c>
       <c r="O8">
-        <v>18.32153675665965</v>
+        <v>20.13015363980882</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -603,25 +603,25 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>7.326301265035971</v>
+        <v>10.21026356897379</v>
       </c>
       <c r="E9">
-        <v>11.65237331931918</v>
+        <v>14.09315794686801</v>
       </c>
       <c r="F9">
-        <v>30.28533448555866</v>
+        <v>28.62013929065481</v>
       </c>
       <c r="G9">
-        <v>39.65152590671435</v>
+        <v>29.37840297970902</v>
       </c>
       <c r="H9">
-        <v>10.64527711017811</v>
+        <v>13.29485483016439</v>
       </c>
       <c r="J9">
-        <v>6.676078659333118</v>
+        <v>9.650023774114825</v>
       </c>
       <c r="O9">
-        <v>20.63875778876984</v>
+        <v>20.55345977065712</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -629,25 +629,25 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7.668235757725404</v>
+        <v>10.23344268846872</v>
       </c>
       <c r="E10">
-        <v>12.39319218433125</v>
+        <v>14.187064937627</v>
       </c>
       <c r="F10">
-        <v>32.75096282969017</v>
+        <v>29.16991955979585</v>
       </c>
       <c r="G10">
-        <v>43.35411818721922</v>
+        <v>30.54415329235389</v>
       </c>
       <c r="H10">
-        <v>11.28920877561121</v>
+        <v>13.37067982789178</v>
       </c>
       <c r="J10">
-        <v>6.961589014260458</v>
+        <v>9.661635036204371</v>
       </c>
       <c r="O10">
-        <v>22.25927489619217</v>
+        <v>20.88320280852614</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -655,25 +655,25 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>7.824176873576624</v>
+        <v>10.24580427003785</v>
       </c>
       <c r="E11">
-        <v>12.72605658028622</v>
+        <v>14.23271206016573</v>
       </c>
       <c r="F11">
-        <v>33.84037352165996</v>
+        <v>29.42418676710616</v>
       </c>
       <c r="G11">
-        <v>44.97216782544186</v>
+        <v>31.06815545768677</v>
       </c>
       <c r="H11">
-        <v>11.57958559616365</v>
+        <v>13.40783664559329</v>
       </c>
       <c r="J11">
-        <v>7.093104964142627</v>
+        <v>9.668634509463791</v>
       </c>
       <c r="O11">
-        <v>23.08420859239373</v>
+        <v>21.03673035878794</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -681,25 +681,25 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>7.883252143055733</v>
+        <v>10.25074430124094</v>
       </c>
       <c r="E12">
-        <v>12.85145187575497</v>
+        <v>14.25040869153862</v>
       </c>
       <c r="F12">
-        <v>34.24821943123362</v>
+        <v>29.52098477406992</v>
       </c>
       <c r="G12">
-        <v>45.57550703438116</v>
+        <v>31.26546135151542</v>
       </c>
       <c r="H12">
-        <v>11.68912969130207</v>
+        <v>13.42228238153745</v>
       </c>
       <c r="J12">
-        <v>7.143124101905997</v>
+        <v>9.6715306881252</v>
       </c>
       <c r="O12">
-        <v>23.39789613842309</v>
+        <v>21.09532649437561</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -707,25 +707,25 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>7.870528631660845</v>
+        <v>10.2496688993483</v>
       </c>
       <c r="E13">
-        <v>12.8244755482653</v>
+        <v>14.2465792901557</v>
       </c>
       <c r="F13">
-        <v>34.16059146935538</v>
+        <v>29.50011618201164</v>
       </c>
       <c r="G13">
-        <v>45.44598149977129</v>
+        <v>31.22302119215389</v>
       </c>
       <c r="H13">
-        <v>11.66555649177794</v>
+        <v>13.4191546736729</v>
       </c>
       <c r="J13">
-        <v>7.132342182482058</v>
+        <v>9.670896042929165</v>
       </c>
       <c r="O13">
-        <v>23.33056228089174</v>
+        <v>21.08268715005315</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -733,25 +733,25 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>7.829036723090186</v>
+        <v>10.24620551355723</v>
       </c>
       <c r="E14">
-        <v>12.73638628952622</v>
+        <v>14.23415979427643</v>
       </c>
       <c r="F14">
-        <v>33.87402139050091</v>
+        <v>29.43214062403226</v>
       </c>
       <c r="G14">
-        <v>45.02199189706984</v>
+        <v>31.08441160933743</v>
       </c>
       <c r="H14">
-        <v>11.58860640194348</v>
+        <v>13.40901763072708</v>
       </c>
       <c r="J14">
-        <v>7.09721581065095</v>
+        <v>9.668867865316694</v>
       </c>
       <c r="O14">
-        <v>23.11011713033182</v>
+        <v>21.04154218700499</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -759,25 +759,25 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>7.80362394789064</v>
+        <v>10.24411774134097</v>
       </c>
       <c r="E15">
-        <v>12.68234257678708</v>
+        <v>14.22660571722196</v>
       </c>
       <c r="F15">
-        <v>33.69787733352868</v>
+        <v>29.39056779534323</v>
       </c>
       <c r="G15">
-        <v>44.76106954905104</v>
+        <v>30.99935692190981</v>
       </c>
       <c r="H15">
-        <v>11.54141698474385</v>
+        <v>13.40285702873039</v>
       </c>
       <c r="J15">
-        <v>7.075727673001353</v>
+        <v>9.667657493565203</v>
       </c>
       <c r="O15">
-        <v>22.97442915169787</v>
+        <v>21.01639798227277</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -785,25 +785,25 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>7.658049621209955</v>
+        <v>10.2326712023642</v>
       </c>
       <c r="E16">
-        <v>12.37135007334843</v>
+        <v>14.18413987375149</v>
       </c>
       <c r="F16">
-        <v>32.67911284823857</v>
+        <v>29.15337906325777</v>
       </c>
       <c r="G16">
-        <v>43.2470528980537</v>
+        <v>30.50976287739128</v>
       </c>
       <c r="H16">
-        <v>11.27017614678108</v>
+        <v>13.36830448962617</v>
       </c>
       <c r="J16">
-        <v>6.953025388091295</v>
+        <v>9.661212053365919</v>
       </c>
       <c r="O16">
-        <v>22.21195203974024</v>
+        <v>20.87323624657433</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -811,25 +811,25 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>7.568820126177518</v>
+        <v>10.22611296865166</v>
       </c>
       <c r="E17">
-        <v>12.17945946805008</v>
+        <v>14.15883154443305</v>
       </c>
       <c r="F17">
-        <v>32.04582423653043</v>
+        <v>29.00887749313399</v>
       </c>
       <c r="G17">
-        <v>42.30136915081194</v>
+        <v>30.20763995635958</v>
       </c>
       <c r="H17">
-        <v>11.10308604386207</v>
+        <v>13.3477844908563</v>
       </c>
       <c r="J17">
-        <v>6.878156084297881</v>
+        <v>9.657696969332493</v>
       </c>
       <c r="O17">
-        <v>21.79509297475173</v>
+        <v>20.7862799768707</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -837,25 +837,25 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>7.517536334960413</v>
+        <v>10.22251205291288</v>
       </c>
       <c r="E18">
-        <v>12.06870196166397</v>
+        <v>14.14455113750935</v>
       </c>
       <c r="F18">
-        <v>31.67854091553776</v>
+        <v>28.92616169188486</v>
       </c>
       <c r="G18">
-        <v>41.75118650442427</v>
+        <v>30.03328550724606</v>
       </c>
       <c r="H18">
-        <v>11.00674208214254</v>
+        <v>13.33623314540065</v>
       </c>
       <c r="J18">
-        <v>6.835248061867973</v>
+        <v>9.655836931840598</v>
       </c>
       <c r="O18">
-        <v>21.55353961578016</v>
+        <v>20.73659984591636</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -863,25 +863,25 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>7.500180255097715</v>
+        <v>10.22132231765966</v>
       </c>
       <c r="E19">
-        <v>12.03113694804147</v>
+        <v>14.13976378266693</v>
       </c>
       <c r="F19">
-        <v>31.55366691015655</v>
+        <v>28.89822649347433</v>
       </c>
       <c r="G19">
-        <v>41.56382679877207</v>
+        <v>29.97415906526011</v>
       </c>
       <c r="H19">
-        <v>10.97408249340912</v>
+        <v>13.33236543278872</v>
       </c>
       <c r="J19">
-        <v>6.820747362980846</v>
+        <v>9.65523497299476</v>
       </c>
       <c r="O19">
-        <v>21.47144909934848</v>
+        <v>20.71983797588703</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -889,25 +889,25 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>7.57831501339945</v>
+        <v>10.22679340089652</v>
       </c>
       <c r="E20">
-        <v>12.19992709184486</v>
+        <v>14.1614971365498</v>
       </c>
       <c r="F20">
-        <v>32.11355332700068</v>
+        <v>29.02421940351396</v>
       </c>
       <c r="G20">
-        <v>42.40268475009517</v>
+        <v>30.23986323467775</v>
       </c>
       <c r="H20">
-        <v>11.12089811782897</v>
+        <v>13.34994293450564</v>
       </c>
       <c r="J20">
-        <v>6.886110172950828</v>
+        <v>9.658054425068773</v>
       </c>
       <c r="O20">
-        <v>21.83965378849385</v>
+        <v>20.79550231663106</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -915,25 +915,25 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>7.841223490870698</v>
+        <v>10.24721578547861</v>
       </c>
       <c r="E21">
-        <v>12.76227834561427</v>
+        <v>14.237796628501</v>
       </c>
       <c r="F21">
-        <v>33.95832145649113</v>
+        <v>29.45209347683171</v>
       </c>
       <c r="G21">
-        <v>45.14678110243416</v>
+        <v>31.12515671042001</v>
       </c>
       <c r="H21">
-        <v>11.61122009110745</v>
+        <v>13.41198500623133</v>
       </c>
       <c r="J21">
-        <v>7.107527514627679</v>
+        <v>9.669456935443996</v>
       </c>
       <c r="O21">
-        <v>23.17500433431807</v>
+        <v>21.05361540318239</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -941,25 +941,25 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>8.013176768260074</v>
+        <v>10.26207120930414</v>
       </c>
       <c r="E22">
-        <v>13.12598524774174</v>
+        <v>14.29005360826748</v>
       </c>
       <c r="F22">
-        <v>35.1368752709647</v>
+        <v>29.73468108382642</v>
       </c>
       <c r="G22">
-        <v>46.88562788043173</v>
+        <v>31.69711573386243</v>
       </c>
       <c r="H22">
-        <v>11.92924141047658</v>
+        <v>13.45471638674812</v>
       </c>
       <c r="J22">
-        <v>7.253495651296156</v>
+        <v>9.678340111134014</v>
       </c>
       <c r="O22">
-        <v>24.07869950038398</v>
+        <v>21.22495736481478</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -967,25 +967,25 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>7.921399747296539</v>
+        <v>10.25400542471186</v>
       </c>
       <c r="E23">
-        <v>12.93223246155926</v>
+        <v>14.26194779235944</v>
       </c>
       <c r="F23">
-        <v>34.51026252081177</v>
+        <v>29.58361782623352</v>
       </c>
       <c r="G23">
-        <v>45.96250545120221</v>
+        <v>31.39252465664361</v>
       </c>
       <c r="H23">
-        <v>11.75974209959121</v>
+        <v>13.4317127771795</v>
       </c>
       <c r="J23">
-        <v>7.175479358536349</v>
+        <v>9.673468545754158</v>
       </c>
       <c r="O23">
-        <v>23.59904883524155</v>
+        <v>21.1332825925894</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -993,25 +993,25 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>7.574022324250228</v>
+        <v>10.22648524933168</v>
       </c>
       <c r="E24">
-        <v>12.19067503578664</v>
+        <v>14.1602911815593</v>
       </c>
       <c r="F24">
-        <v>32.082942958965</v>
+        <v>29.01728219750573</v>
       </c>
       <c r="G24">
-        <v>42.35690021348297</v>
+        <v>30.22529712948349</v>
       </c>
       <c r="H24">
-        <v>11.11284615255837</v>
+        <v>13.34896633560857</v>
       </c>
       <c r="J24">
-        <v>6.882513706472721</v>
+        <v>9.657892318257414</v>
       </c>
       <c r="O24">
-        <v>21.81951374431371</v>
+        <v>20.79133192062998</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1019,25 +1019,25 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>7.200976991556058</v>
+        <v>10.20335309967254</v>
       </c>
       <c r="E25">
-        <v>11.37637603864035</v>
+        <v>14.061234597731</v>
       </c>
       <c r="F25">
-        <v>29.34947784744205</v>
+        <v>28.42194760795604</v>
       </c>
       <c r="G25">
-        <v>38.22958794722869</v>
+        <v>28.94502986164284</v>
       </c>
       <c r="H25">
-        <v>10.40628723743079</v>
+        <v>13.26934136391781</v>
       </c>
       <c r="J25">
-        <v>6.572530982669184</v>
+        <v>9.647278360295559</v>
       </c>
       <c r="O25">
-        <v>20.02571677134746</v>
+        <v>20.43547031540906</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_68/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_68/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.19202271113354</v>
+        <v>6.929142561831582</v>
       </c>
       <c r="E2">
-        <v>13.99772134997901</v>
+        <v>10.76736216989135</v>
       </c>
       <c r="F2">
-        <v>28.00002925415833</v>
+        <v>27.24257837156808</v>
       </c>
       <c r="G2">
-        <v>27.99262492241991</v>
+        <v>35.07036351202714</v>
       </c>
       <c r="H2">
-        <v>13.21923212800039</v>
+        <v>9.88095622149075</v>
       </c>
       <c r="J2">
-        <v>9.644818864116694</v>
+        <v>6.350288244501962</v>
       </c>
       <c r="O2">
-        <v>20.18627902080746</v>
+        <v>18.65048739628847</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -447,25 +447,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10.18792776010369</v>
+        <v>6.74753764764738</v>
       </c>
       <c r="E3">
-        <v>13.96069026936262</v>
+        <v>10.35077646196031</v>
       </c>
       <c r="F3">
-        <v>27.72584099711404</v>
+        <v>25.76044373170516</v>
       </c>
       <c r="G3">
-        <v>27.34581590149835</v>
+        <v>32.81140880590392</v>
       </c>
       <c r="H3">
-        <v>13.19068893700766</v>
+        <v>9.523449135411223</v>
       </c>
       <c r="J3">
-        <v>9.64650525613669</v>
+        <v>6.203910081299258</v>
       </c>
       <c r="O3">
-        <v>20.02620259791254</v>
+        <v>17.68785064219426</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -473,25 +473,25 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>10.18718855004999</v>
+        <v>6.637638983567014</v>
       </c>
       <c r="E4">
-        <v>13.94095794876884</v>
+        <v>10.0939379994429</v>
       </c>
       <c r="F4">
-        <v>27.56376897813321</v>
+        <v>24.82588725908339</v>
       </c>
       <c r="G4">
-        <v>26.94969477667469</v>
+        <v>31.36756249288894</v>
       </c>
       <c r="H4">
-        <v>13.17586455310845</v>
+        <v>9.303899349807502</v>
       </c>
       <c r="J4">
-        <v>9.649197674905501</v>
+        <v>6.116305738786446</v>
       </c>
       <c r="O4">
-        <v>19.93251056327977</v>
+        <v>17.08327969109419</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -499,25 +499,25 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>10.18733472167911</v>
+        <v>6.593308729239212</v>
       </c>
       <c r="E5">
-        <v>13.93367796296429</v>
+        <v>9.989154270753353</v>
       </c>
       <c r="F5">
-        <v>27.49937375959709</v>
+        <v>24.43931282760783</v>
       </c>
       <c r="G5">
-        <v>26.78879404821963</v>
+        <v>30.76519909385388</v>
       </c>
       <c r="H5">
-        <v>13.17050689977642</v>
+        <v>9.214538810583171</v>
       </c>
       <c r="J5">
-        <v>9.650711919510524</v>
+        <v>6.081206206877833</v>
       </c>
       <c r="O5">
-        <v>19.89552268896704</v>
+        <v>16.83381537688477</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -525,25 +525,25 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>10.18738604175381</v>
+        <v>6.585976650054618</v>
       </c>
       <c r="E6">
-        <v>13.93251524037363</v>
+        <v>9.971752273544773</v>
       </c>
       <c r="F6">
-        <v>27.488782674454</v>
+        <v>24.37479038084111</v>
       </c>
       <c r="G6">
-        <v>26.76211597885139</v>
+        <v>30.66434366534659</v>
       </c>
       <c r="H6">
-        <v>13.16965865087502</v>
+        <v>9.199710702393469</v>
       </c>
       <c r="J6">
-        <v>9.650988556930281</v>
+        <v>6.075415018752584</v>
       </c>
       <c r="O6">
-        <v>19.8894539280562</v>
+        <v>16.79221483937539</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -551,25 +551,25 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>10.18718870862639</v>
+        <v>6.637039223601697</v>
       </c>
       <c r="E7">
-        <v>13.94085668000986</v>
+        <v>10.09252513338267</v>
       </c>
       <c r="F7">
-        <v>27.56289374781946</v>
+        <v>24.82069636809537</v>
       </c>
       <c r="G7">
-        <v>26.94752234594239</v>
+        <v>31.35949494394981</v>
       </c>
       <c r="H7">
-        <v>13.17578952584707</v>
+        <v>9.30269360310275</v>
       </c>
       <c r="J7">
-        <v>9.649216407453324</v>
+        <v>6.115829907560234</v>
       </c>
       <c r="O7">
-        <v>19.93200685707587</v>
+        <v>17.07992742946534</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -577,25 +577,25 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>10.19024303432426</v>
+        <v>6.866221189033861</v>
       </c>
       <c r="E8">
-        <v>13.98433288131061</v>
+        <v>10.62402434875106</v>
       </c>
       <c r="F8">
-        <v>27.90422929772433</v>
+        <v>26.736858802281</v>
       </c>
       <c r="G8">
-        <v>27.76954980634316</v>
+        <v>34.30342519974122</v>
       </c>
       <c r="H8">
-        <v>13.20883245916028</v>
+        <v>9.757763095630722</v>
       </c>
       <c r="J8">
-        <v>9.645056714851281</v>
+        <v>6.299362509181313</v>
       </c>
       <c r="O8">
-        <v>20.13015363980882</v>
+        <v>18.32153675665964</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -603,25 +603,25 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>10.21026356897379</v>
+        <v>7.326301265036054</v>
       </c>
       <c r="E9">
-        <v>14.09315794686801</v>
+        <v>11.65237331931917</v>
       </c>
       <c r="F9">
-        <v>28.62013929065481</v>
+        <v>30.28533448555867</v>
       </c>
       <c r="G9">
-        <v>29.37840297970902</v>
+        <v>39.6515259067143</v>
       </c>
       <c r="H9">
-        <v>13.29485483016439</v>
+        <v>10.64527711017812</v>
       </c>
       <c r="J9">
-        <v>9.650023774114825</v>
+        <v>6.676078659333067</v>
       </c>
       <c r="O9">
-        <v>20.55345977065712</v>
+        <v>20.63875778876985</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -629,25 +629,25 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>10.23344268846872</v>
+        <v>7.668235757725375</v>
       </c>
       <c r="E10">
-        <v>14.187064937627</v>
+        <v>12.39319218433127</v>
       </c>
       <c r="F10">
-        <v>29.16991955979585</v>
+        <v>32.75096282969014</v>
       </c>
       <c r="G10">
-        <v>30.54415329235389</v>
+        <v>43.35411818721922</v>
       </c>
       <c r="H10">
-        <v>13.37067982789178</v>
+        <v>11.28920877561121</v>
       </c>
       <c r="J10">
-        <v>9.661635036204371</v>
+        <v>6.96158901426048</v>
       </c>
       <c r="O10">
-        <v>20.88320280852614</v>
+        <v>22.25927489619216</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -655,25 +655,25 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>10.24580427003785</v>
+        <v>7.824176873576631</v>
       </c>
       <c r="E11">
-        <v>14.23271206016573</v>
+        <v>12.72605658028618</v>
       </c>
       <c r="F11">
-        <v>29.42418676710616</v>
+        <v>33.84037352165997</v>
       </c>
       <c r="G11">
-        <v>31.06815545768677</v>
+        <v>44.97216782544186</v>
       </c>
       <c r="H11">
-        <v>13.40783664559329</v>
+        <v>11.57958559616365</v>
       </c>
       <c r="J11">
-        <v>9.668634509463791</v>
+        <v>7.093104964142591</v>
       </c>
       <c r="O11">
-        <v>21.03673035878794</v>
+        <v>23.08420859239375</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -681,25 +681,25 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>10.25074430124094</v>
+        <v>7.883252143055722</v>
       </c>
       <c r="E12">
-        <v>14.25040869153862</v>
+        <v>12.85145187575497</v>
       </c>
       <c r="F12">
-        <v>29.52098477406992</v>
+        <v>34.24821943123361</v>
       </c>
       <c r="G12">
-        <v>31.26546135151542</v>
+        <v>45.57550703438112</v>
       </c>
       <c r="H12">
-        <v>13.42228238153745</v>
+        <v>11.68912969130207</v>
       </c>
       <c r="J12">
-        <v>9.6715306881252</v>
+        <v>7.143124101906022</v>
       </c>
       <c r="O12">
-        <v>21.09532649437561</v>
+        <v>23.39789613842309</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -707,25 +707,25 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>10.2496688993483</v>
+        <v>7.870528631660817</v>
       </c>
       <c r="E13">
-        <v>14.2465792901557</v>
+        <v>12.8244755482653</v>
       </c>
       <c r="F13">
-        <v>29.50011618201164</v>
+        <v>34.16059146935533</v>
       </c>
       <c r="G13">
-        <v>31.22302119215389</v>
+        <v>45.44598149977125</v>
       </c>
       <c r="H13">
-        <v>13.4191546736729</v>
+        <v>11.66555649177792</v>
       </c>
       <c r="J13">
-        <v>9.670896042929165</v>
+        <v>7.132342182482068</v>
       </c>
       <c r="O13">
-        <v>21.08268715005315</v>
+        <v>23.33056228089172</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -733,25 +733,25 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>10.24620551355723</v>
+        <v>7.829036723090257</v>
       </c>
       <c r="E14">
-        <v>14.23415979427643</v>
+        <v>12.73638628952626</v>
       </c>
       <c r="F14">
-        <v>29.43214062403226</v>
+        <v>33.87402139050091</v>
       </c>
       <c r="G14">
-        <v>31.08441160933743</v>
+        <v>45.02199189706989</v>
       </c>
       <c r="H14">
-        <v>13.40901763072708</v>
+        <v>11.58860640194349</v>
       </c>
       <c r="J14">
-        <v>9.668867865316694</v>
+        <v>7.09721581065094</v>
       </c>
       <c r="O14">
-        <v>21.04154218700499</v>
+        <v>23.11011713033182</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -759,25 +759,25 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>10.24411774134097</v>
+        <v>7.803623947890588</v>
       </c>
       <c r="E15">
-        <v>14.22660571722196</v>
+        <v>12.68234257678705</v>
       </c>
       <c r="F15">
-        <v>29.39056779534323</v>
+        <v>33.69787733352866</v>
       </c>
       <c r="G15">
-        <v>30.99935692190981</v>
+        <v>44.76106954905109</v>
       </c>
       <c r="H15">
-        <v>13.40285702873039</v>
+        <v>11.54141698474384</v>
       </c>
       <c r="J15">
-        <v>9.667657493565203</v>
+        <v>7.075727673001349</v>
       </c>
       <c r="O15">
-        <v>21.01639798227277</v>
+        <v>22.97442915169789</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -785,25 +785,25 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>10.2326712023642</v>
+        <v>7.658049621209878</v>
       </c>
       <c r="E16">
-        <v>14.18413987375149</v>
+        <v>12.37135007334845</v>
       </c>
       <c r="F16">
-        <v>29.15337906325777</v>
+        <v>32.67911284823857</v>
       </c>
       <c r="G16">
-        <v>30.50976287739128</v>
+        <v>43.24705289805365</v>
       </c>
       <c r="H16">
-        <v>13.36830448962617</v>
+        <v>11.27017614678109</v>
       </c>
       <c r="J16">
-        <v>9.661212053365919</v>
+        <v>6.953025388091334</v>
       </c>
       <c r="O16">
-        <v>20.87323624657433</v>
+        <v>22.21195203974023</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -811,25 +811,25 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>10.22611296865166</v>
+        <v>7.568820126177515</v>
       </c>
       <c r="E17">
-        <v>14.15883154443305</v>
+        <v>12.17945946805009</v>
       </c>
       <c r="F17">
-        <v>29.00887749313399</v>
+        <v>32.04582423653042</v>
       </c>
       <c r="G17">
-        <v>30.20763995635958</v>
+        <v>42.30136915081187</v>
       </c>
       <c r="H17">
-        <v>13.3477844908563</v>
+        <v>11.10308604386209</v>
       </c>
       <c r="J17">
-        <v>9.657696969332493</v>
+        <v>6.878156084297922</v>
       </c>
       <c r="O17">
-        <v>20.7862799768707</v>
+        <v>21.79509297475172</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -837,25 +837,25 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>10.22251205291288</v>
+        <v>7.517536334960422</v>
       </c>
       <c r="E18">
-        <v>14.14455113750935</v>
+        <v>12.06870196166399</v>
       </c>
       <c r="F18">
-        <v>28.92616169188486</v>
+        <v>31.67854091553776</v>
       </c>
       <c r="G18">
-        <v>30.03328550724606</v>
+        <v>41.75118650442421</v>
       </c>
       <c r="H18">
-        <v>13.33623314540065</v>
+        <v>11.00674208214255</v>
       </c>
       <c r="J18">
-        <v>9.655836931840598</v>
+        <v>6.835248061867964</v>
       </c>
       <c r="O18">
-        <v>20.73659984591636</v>
+        <v>21.55353961578017</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -863,25 +863,25 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>10.22132231765966</v>
+        <v>7.500180255097737</v>
       </c>
       <c r="E19">
-        <v>14.13976378266693</v>
+        <v>12.03113694804146</v>
       </c>
       <c r="F19">
-        <v>28.89822649347433</v>
+        <v>31.55366691015654</v>
       </c>
       <c r="G19">
-        <v>29.97415906526011</v>
+        <v>41.56382679877201</v>
       </c>
       <c r="H19">
-        <v>13.33236543278872</v>
+        <v>10.97408249340915</v>
       </c>
       <c r="J19">
-        <v>9.65523497299476</v>
+        <v>6.820747362980837</v>
       </c>
       <c r="O19">
-        <v>20.71983797588703</v>
+        <v>21.47144909934847</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -889,25 +889,25 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>10.22679340089652</v>
+        <v>7.578315013399436</v>
       </c>
       <c r="E20">
-        <v>14.1614971365498</v>
+        <v>12.19992709184486</v>
       </c>
       <c r="F20">
-        <v>29.02421940351396</v>
+        <v>32.11355332700062</v>
       </c>
       <c r="G20">
-        <v>30.23986323467775</v>
+        <v>42.40268475009515</v>
       </c>
       <c r="H20">
-        <v>13.34994293450564</v>
+        <v>11.12089811782897</v>
       </c>
       <c r="J20">
-        <v>9.658054425068773</v>
+        <v>6.886110172950834</v>
       </c>
       <c r="O20">
-        <v>20.79550231663106</v>
+        <v>21.83965378849382</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -915,25 +915,25 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>10.24721578547861</v>
+        <v>7.841223490870698</v>
       </c>
       <c r="E21">
-        <v>14.237796628501</v>
+        <v>12.76227834561427</v>
       </c>
       <c r="F21">
-        <v>29.45209347683171</v>
+        <v>33.95832145649113</v>
       </c>
       <c r="G21">
-        <v>31.12515671042001</v>
+        <v>45.14678110243409</v>
       </c>
       <c r="H21">
-        <v>13.41198500623133</v>
+        <v>11.61122009110744</v>
       </c>
       <c r="J21">
-        <v>9.669456935443996</v>
+        <v>7.107527514627658</v>
       </c>
       <c r="O21">
-        <v>21.05361540318239</v>
+        <v>23.17500433431804</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -941,25 +941,25 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>10.26207120930414</v>
+        <v>8.013176768260024</v>
       </c>
       <c r="E22">
-        <v>14.29005360826748</v>
+        <v>13.12598524774171</v>
       </c>
       <c r="F22">
-        <v>29.73468108382642</v>
+        <v>35.13687527096469</v>
       </c>
       <c r="G22">
-        <v>31.69711573386243</v>
+        <v>46.8856278804317</v>
       </c>
       <c r="H22">
-        <v>13.45471638674812</v>
+        <v>11.92924141047654</v>
       </c>
       <c r="J22">
-        <v>9.678340111134014</v>
+        <v>7.25349565129615</v>
       </c>
       <c r="O22">
-        <v>21.22495736481478</v>
+        <v>24.07869950038397</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -967,25 +967,25 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>10.25400542471186</v>
+        <v>7.921399747296523</v>
       </c>
       <c r="E23">
-        <v>14.26194779235944</v>
+        <v>12.93223246155928</v>
       </c>
       <c r="F23">
-        <v>29.58361782623352</v>
+        <v>34.51026252081177</v>
       </c>
       <c r="G23">
-        <v>31.39252465664361</v>
+        <v>45.96250545120226</v>
       </c>
       <c r="H23">
-        <v>13.4317127771795</v>
+        <v>11.7597420995912</v>
       </c>
       <c r="J23">
-        <v>9.673468545754158</v>
+        <v>7.175479358536367</v>
       </c>
       <c r="O23">
-        <v>21.1332825925894</v>
+        <v>23.59904883524156</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -993,25 +993,25 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>10.22648524933168</v>
+        <v>7.574022324250245</v>
       </c>
       <c r="E24">
-        <v>14.1602911815593</v>
+        <v>12.19067503578665</v>
       </c>
       <c r="F24">
-        <v>29.01728219750573</v>
+        <v>32.08294295896497</v>
       </c>
       <c r="G24">
-        <v>30.22529712948349</v>
+        <v>42.35690021348302</v>
       </c>
       <c r="H24">
-        <v>13.34896633560857</v>
+        <v>11.11284615255835</v>
       </c>
       <c r="J24">
-        <v>9.657892318257414</v>
+        <v>6.882513706472718</v>
       </c>
       <c r="O24">
-        <v>20.79133192062998</v>
+        <v>21.8195137443137</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1019,25 +1019,25 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>10.20335309967254</v>
+        <v>7.200976991556043</v>
       </c>
       <c r="E25">
-        <v>14.061234597731</v>
+        <v>11.37637603864036</v>
       </c>
       <c r="F25">
-        <v>28.42194760795604</v>
+        <v>29.34947784744207</v>
       </c>
       <c r="G25">
-        <v>28.94502986164284</v>
+        <v>38.22958794722871</v>
       </c>
       <c r="H25">
-        <v>13.26934136391781</v>
+        <v>10.40628723743083</v>
       </c>
       <c r="J25">
-        <v>9.647278360295559</v>
+        <v>6.572530982669189</v>
       </c>
       <c r="O25">
-        <v>20.43547031540906</v>
+        <v>20.02571677134748</v>
       </c>
     </row>
   </sheetData>
